--- a/outputs-HGR-r202/test-g__Alistipes_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Alistipes_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Row</t>
   </si>
@@ -130,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,14 +140,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,84 +192,84 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -342,7 +346,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -419,7 +423,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -496,234 +500,234 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1.9748855138140737e-11</v>
+        <v>0.0018417654855856611</v>
       </c>
       <c r="C5">
-        <v>0.013464418141130674</v>
+        <v>0.00036035525509299455</v>
       </c>
       <c r="D5">
-        <v>0.0015221826768463797</v>
+        <v>0.0012139809283246885</v>
       </c>
       <c r="E5">
-        <v>0.001962372161078725</v>
+        <v>0.0026169000433661589</v>
       </c>
       <c r="F5">
-        <v>0.0017558581412410606</v>
+        <v>0.00010840658159489871</v>
       </c>
       <c r="G5">
-        <v>0.0047012819181095188</v>
+        <v>0.01112294659557851</v>
       </c>
       <c r="H5">
-        <v>0.053998366617994419</v>
+        <v>0.053511261147189584</v>
       </c>
       <c r="I5">
-        <v>0.037847142608832679</v>
+        <v>0.02212852771380033</v>
       </c>
       <c r="J5">
-        <v>0.0023190937590349082</v>
+        <v>0.013933055016216602</v>
       </c>
       <c r="K5">
-        <v>0.013724084728148863</v>
+        <v>0.077656977711502373</v>
       </c>
       <c r="L5">
-        <v>0.043726025293509989</v>
+        <v>0.00070956151201680487</v>
       </c>
       <c r="M5">
-        <v>0.244949700271895</v>
+        <v>0.16951981253010273</v>
       </c>
       <c r="N5">
-        <v>0.20266559244291799</v>
+        <v>0.057186440299182184</v>
       </c>
       <c r="O5">
-        <v>0.031804897927619195</v>
+        <v>0.015083840478492058</v>
       </c>
       <c r="P5">
-        <v>0.0041055472347622766</v>
+        <v>4.2444114761657551e-06</v>
       </c>
       <c r="Q5">
-        <v>0.00012463646502644209</v>
+        <v>0.0029203156713088455</v>
       </c>
       <c r="R5">
-        <v>0.16190882393538741</v>
+        <v>6.9386191654156004e-09</v>
       </c>
       <c r="S5">
-        <v>0.0021868325394389077</v>
+        <v>0.33884002797817186</v>
       </c>
       <c r="T5">
-        <v>0.080519495213113843</v>
+        <v>0.0043328407152750017</v>
       </c>
       <c r="U5">
-        <v>0.006359608806380355</v>
+        <v>0.0045069449855586405</v>
       </c>
       <c r="V5">
-        <v>0.00011176077454699794</v>
+        <v>0.022713703556126487</v>
       </c>
       <c r="W5">
-        <v>0.049081209365576021</v>
+        <v>0.050274177255357606</v>
       </c>
       <c r="X5">
-        <v>0.041161068957659516</v>
+        <v>0.14941390719006042</v>
       </c>
       <c r="Y5">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0018417654855856611</v>
+        <v>1.4046219753430001e-12</v>
       </c>
       <c r="C6">
-        <v>0.00036035525509299455</v>
+        <v>0.001371003115218571</v>
       </c>
       <c r="D6">
-        <v>0.0012139809283246885</v>
+        <v>6.3090165547938448e-08</v>
       </c>
       <c r="E6">
-        <v>0.0026169000433661589</v>
+        <v>0.0019834480210525469</v>
       </c>
       <c r="F6">
-        <v>0.00010840658159489871</v>
+        <v>0.00095366829772287431</v>
       </c>
       <c r="G6">
-        <v>0.01112294659557851</v>
+        <v>0.00082886409165226142</v>
       </c>
       <c r="H6">
-        <v>0.053511261147189584</v>
+        <v>0.066176530932155447</v>
       </c>
       <c r="I6">
-        <v>0.02212852771380033</v>
+        <v>0.0053887592813616032</v>
       </c>
       <c r="J6">
-        <v>0.013933055016216602</v>
+        <v>8.9655238015551178e-05</v>
       </c>
       <c r="K6">
-        <v>0.077656977711502373</v>
+        <v>0.00038087993017144712</v>
       </c>
       <c r="L6">
-        <v>0.00070956151201680487</v>
+        <v>0.035066300939645113</v>
       </c>
       <c r="M6">
-        <v>0.16951981253010273</v>
+        <v>0.071432737154343839</v>
       </c>
       <c r="N6">
-        <v>0.057186440299182184</v>
+        <v>0.10939411001849542</v>
       </c>
       <c r="O6">
-        <v>0.015083840478492058</v>
+        <v>0.010763986801820646</v>
       </c>
       <c r="P6">
-        <v>4.2444114761657551e-06</v>
+        <v>0.12233416576719333</v>
       </c>
       <c r="Q6">
-        <v>0.0029203156713088455</v>
+        <v>0.0010195811625093064</v>
       </c>
       <c r="R6">
-        <v>6.9386191654156004e-09</v>
+        <v>0.083751066274401167</v>
       </c>
       <c r="S6">
-        <v>0.33884002797817186</v>
+        <v>0.0039039980713181151</v>
       </c>
       <c r="T6">
-        <v>0.0043328407152750017</v>
+        <v>0.36972143374184302</v>
       </c>
       <c r="U6">
-        <v>0.0045069449855586405</v>
+        <v>0.0019756302423038236</v>
       </c>
       <c r="V6">
-        <v>0.022713703556126487</v>
+        <v>2.646428215646432e-06</v>
       </c>
       <c r="W6">
-        <v>0.050274177255357606</v>
+        <v>0.032714113535575573</v>
       </c>
       <c r="X6">
-        <v>0.14941390719006042</v>
+        <v>0.080747357863414443</v>
       </c>
       <c r="Y6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1.4046219753430001e-12</v>
+        <v>2.5979991470970276e-08</v>
       </c>
       <c r="C7">
-        <v>0.001371003115218571</v>
+        <v>0.032359538389443235</v>
       </c>
       <c r="D7">
-        <v>6.3090165547938448e-08</v>
+        <v>0.22701354619055764</v>
       </c>
       <c r="E7">
-        <v>0.0019834480210525469</v>
+        <v>0.0020757666202160341</v>
       </c>
       <c r="F7">
-        <v>0.00095366829772287431</v>
+        <v>0.033893809273321363</v>
       </c>
       <c r="G7">
-        <v>0.00082886409165226142</v>
+        <v>0.013254434386095013</v>
       </c>
       <c r="H7">
-        <v>0.066176530932155447</v>
+        <v>0.081207795712480491</v>
       </c>
       <c r="I7">
-        <v>0.0053887592813616032</v>
+        <v>0.040858361232763041</v>
       </c>
       <c r="J7">
-        <v>8.9655238015551178e-05</v>
+        <v>0.00084586880209848751</v>
       </c>
       <c r="K7">
-        <v>0.00038087993017144712</v>
+        <v>0.0080840702119241072</v>
       </c>
       <c r="L7">
-        <v>0.035066300939645113</v>
+        <v>0.051257913360154672</v>
       </c>
       <c r="M7">
-        <v>0.071432737154343839</v>
+        <v>0.29812959493326918</v>
       </c>
       <c r="N7">
-        <v>0.10939411001849542</v>
+        <v>0.026233052785599485</v>
       </c>
       <c r="O7">
-        <v>0.010763986801820646</v>
+        <v>0.0058129993261661333</v>
       </c>
       <c r="P7">
-        <v>0.12233416576719333</v>
+        <v>8.0211461636808175e-05</v>
       </c>
       <c r="Q7">
-        <v>0.0010195811625093064</v>
+        <v>0.00039695963149259455</v>
       </c>
       <c r="R7">
-        <v>0.083751066274401167</v>
+        <v>0.019645560945789266</v>
       </c>
       <c r="S7">
-        <v>0.0039039980713181151</v>
+        <v>0.00176864055472477</v>
       </c>
       <c r="T7">
-        <v>0.36972143374184302</v>
+        <v>0.0072724159413100845</v>
       </c>
       <c r="U7">
-        <v>0.0019756302423038236</v>
+        <v>0.0010681709948885737</v>
       </c>
       <c r="V7">
-        <v>2.646428215646432e-06</v>
+        <v>9.5388385859659791e-05</v>
       </c>
       <c r="W7">
-        <v>0.032714113535575573</v>
+        <v>0.05223052345490841</v>
       </c>
       <c r="X7">
-        <v>0.080747357863414443</v>
+        <v>0.09641535142530952</v>
       </c>
       <c r="Y7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
